--- a/students — копия.xlsx
+++ b/students — копия.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peret\PycharmProjects\BACertificate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peret\PycharmProjects\Certificate Generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90865862-5B6D-4722-86FA-1159053033FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C3811-1A47-46B1-A636-AE80AF5E0D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CCCAE2C7-ED7B-4036-B63F-AAB6117CE2B7}"/>
+    <workbookView xWindow="756" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{CCCAE2C7-ED7B-4036-B63F-AAB6117CE2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Peretiatko Olha</t>
-  </si>
-  <si>
-    <t>Mark Elliot Zuckerberg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Kris Jenner</t>
   </si>
@@ -61,6 +55,27 @@
   </si>
   <si>
     <t>Python.png</t>
+  </si>
+  <si>
+    <t>Petrik Piatochkin</t>
+  </si>
+  <si>
+    <t>Front_End_g.png</t>
+  </si>
+  <si>
+    <t>Galina (Front-End teacher)</t>
+  </si>
+  <si>
+    <t>Yiliya Briz  (UI-UX Design teacher)</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>April 2020 - June 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homer Jay Simpson</t>
   </si>
 </sst>
 </file>
@@ -420,73 +435,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85C0A89-93D0-4FAF-9425-0EE452891D18}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
